--- a/tables/step3_ufors_qp_annotated.xlsx
+++ b/tables/step3_ufors_qp_annotated.xlsx
@@ -8,23 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\UQ\BookProjects\SI_ReplicationInCorpusLinguistics\ourpaper\ijcl_ufor\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65306E41-1F23-4902-BD64-411CC933716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9341A6A-806E-4844-8D4A-7639CADED648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25365" yWindow="1980" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data annotation" sheetId="1" r:id="rId1"/>
-    <sheet name="Pivot tables" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="771">
   <si>
     <t>corpus</t>
   </si>
@@ -2306,141 +2302,21 @@
     <t>Y</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>response polarity</t>
   </si>
   <si>
-    <t>self-repair pursuing TC response</t>
-  </si>
-  <si>
-    <t>TC &gt;&gt; NTC</t>
-  </si>
-  <si>
-    <t>NTC &gt;&gt; TC</t>
-  </si>
-  <si>
-    <t>non-addressed recipient</t>
-  </si>
-  <si>
-    <t>addressed recipient</t>
-  </si>
-  <si>
-    <t>metapragmatic comment</t>
-  </si>
-  <si>
-    <t>confirmation through repeat</t>
-  </si>
-  <si>
-    <t>other-repair of Q</t>
-  </si>
-  <si>
-    <t>inaudible</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
-    <t>direct repeat</t>
-  </si>
-  <si>
-    <t>well-prefaced</t>
-  </si>
-  <si>
-    <t>joking</t>
-  </si>
-  <si>
-    <t>delayed response (continguity)</t>
-  </si>
-  <si>
-    <t>oh-prefaced</t>
-  </si>
-  <si>
-    <t>uh-prefaced</t>
-  </si>
-  <si>
-    <t>hedged no</t>
-  </si>
-  <si>
     <t>YN</t>
   </si>
   <si>
-    <t>yes-response in overlap with UF-or</t>
-  </si>
-  <si>
-    <t>pursuing agreement; response in overlap with Q</t>
-  </si>
-  <si>
-    <t>yeah + direct repeat</t>
-  </si>
-  <si>
-    <t>minimal response</t>
-  </si>
-  <si>
-    <t>um-prefaced</t>
-  </si>
-  <si>
-    <t>hedged yes</t>
-  </si>
-  <si>
-    <t>hedged yes followed by delayed disagreement (well-prefaced)</t>
-  </si>
-  <si>
-    <t>yes + direct repeat</t>
-  </si>
-  <si>
-    <t>Rejects terms of question</t>
-  </si>
-  <si>
-    <t>Checking terms of prior question</t>
-  </si>
-  <si>
-    <t>ah-prefaced</t>
-  </si>
-  <si>
-    <t>Alright + well-prefaced no</t>
-  </si>
-  <si>
-    <t>agreeability</t>
-  </si>
-  <si>
-    <t>Polar question transformed into alternate question</t>
-  </si>
-  <si>
-    <t>look-prefaced</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of response polarity</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t xml:space="preserve">P </t>
   </si>
   <si>
-    <t>Continuer rather than confirmation</t>
-  </si>
-  <si>
-    <t>NOT ACCURATE FOLLOWING REVISION OF ANNOTATIONS - NEEDS RE-CALCULATING</t>
-  </si>
-  <si>
-    <t>&gt;&gt;55</t>
-  </si>
-  <si>
     <t>response alignment</t>
   </si>
   <si>
@@ -2451,36 +2327,6 @@
   </si>
   <si>
     <t>action format</t>
-  </si>
-  <si>
-    <t>annotator comment 1</t>
-  </si>
-  <si>
-    <t>annotator comment 2</t>
-  </si>
-  <si>
-    <t>inaudible - needs manual follow-up</t>
-  </si>
-  <si>
-    <t>go-ahead</t>
-  </si>
-  <si>
-    <t>Pursues response to Q</t>
-  </si>
-  <si>
-    <t>Elaboration in following line: T: "and since then I've been learning improvisation"</t>
-  </si>
-  <si>
-    <t>go ahead</t>
-  </si>
-  <si>
-    <t>Pursues elaboration of response</t>
-  </si>
-  <si>
-    <t>Repair</t>
-  </si>
-  <si>
-    <t>Borderline case</t>
   </si>
   <si>
     <t xml:space="preserve">Data </t>
@@ -2493,7 +2339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2505,21 +2351,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2551,7 +2382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2560,58 +2391,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2622,1637 +2410,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Martin Schweinberger" refreshedDate="44980.510674189813" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="290" xr:uid="{CB6D4AC6-B6BD-43C4-B0ED-E9979F3FB769}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="I1:K277" sheet="Data annotation"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="response polarity" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
-        <m/>
-        <s v="Y"/>
-        <s v="N"/>
-        <s v="NA"/>
-        <s v="YN"/>
-        <s v="B"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="explicit-inferred" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <m/>
-        <s v="E"/>
-        <s v="I"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="response type" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <m/>
-        <s v="TC"/>
-        <s v="NTC"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="290">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{82E6B880-BD4C-4786-B61C-6EA6EDD5B959}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of response polarity" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4552,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="G26" sqref="A1:M277"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="F25" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,49 +2724,41 @@
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -4629,19 +2778,16 @@
         <v>651</v>
       </c>
       <c r="I2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J2" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K2" t="s">
         <v>758</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -4661,22 +2807,16 @@
         <v>681</v>
       </c>
       <c r="I3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J3" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K3" t="s">
         <v>758</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4704,11 +2844,8 @@
       <c r="K4" t="s">
         <v>758</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4737,7 +2874,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4765,11 +2902,8 @@
       <c r="K6" t="s">
         <v>758</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -4798,7 +2932,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -4826,11 +2960,8 @@
       <c r="K8" t="s">
         <v>757</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -4858,11 +2989,8 @@
       <c r="K9" t="s">
         <v>758</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -4890,14 +3018,8 @@
       <c r="K10" t="s">
         <v>758</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -4925,11 +3047,8 @@
       <c r="K11" t="s">
         <v>757</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -4958,7 +3077,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -4987,7 +3106,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -5015,11 +3134,8 @@
       <c r="K14" t="s">
         <v>757</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -5048,7 +3164,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>243</v>
       </c>
@@ -5077,7 +3193,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>248</v>
       </c>
@@ -5106,7 +3222,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>259</v>
       </c>
@@ -5134,11 +3250,8 @@
       <c r="K18" t="s">
         <v>757</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5161,16 +3274,13 @@
         <v>756</v>
       </c>
       <c r="J19" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K19" t="s">
         <v>757</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -5193,13 +3303,13 @@
         <v>756</v>
       </c>
       <c r="J20" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K20" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -5222,16 +3332,13 @@
         <v>756</v>
       </c>
       <c r="J21" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K21" t="s">
         <v>758</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -5254,19 +3361,13 @@
         <v>756</v>
       </c>
       <c r="J22" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K22" t="s">
         <v>757</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -5286,7 +3387,7 @@
         <v>526</v>
       </c>
       <c r="I23" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="J23" t="s">
         <v>755</v>
@@ -5294,11 +3395,8 @@
       <c r="K23" t="s">
         <v>758</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -5318,16 +3416,16 @@
         <v>491</v>
       </c>
       <c r="I24" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="J24" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K24" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5347,22 +3445,16 @@
         <v>496</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="J25" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K25" t="s">
         <v>758</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -5382,16 +3474,16 @@
         <v>541</v>
       </c>
       <c r="I26" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="J26" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K26" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>98</v>
       </c>
@@ -5411,19 +3503,16 @@
         <v>571</v>
       </c>
       <c r="I27" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="J27" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K27" t="s">
         <v>758</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>279</v>
       </c>
@@ -5443,22 +3532,16 @@
         <v>751</v>
       </c>
       <c r="I28" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="J28" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K28" t="s">
         <v>758</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -5486,14 +3569,8 @@
       <c r="K29" t="s">
         <v>757</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5521,11 +3598,8 @@
       <c r="K30" t="s">
         <v>758</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5553,11 +3627,8 @@
       <c r="K31" t="s">
         <v>758</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -5585,11 +3656,8 @@
       <c r="K32" t="s">
         <v>758</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -5617,11 +3685,8 @@
       <c r="K33" t="s">
         <v>757</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -5649,11 +3714,8 @@
       <c r="K34" t="s">
         <v>757</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -5682,7 +3744,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -5711,7 +3773,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -5739,14 +3801,8 @@
       <c r="K37" t="s">
         <v>757</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -5774,11 +3830,8 @@
       <c r="K38" t="s">
         <v>758</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -5806,14 +3859,8 @@
       <c r="K39" t="s">
         <v>758</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -5842,7 +3889,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -5871,7 +3918,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>218</v>
       </c>
@@ -5899,11 +3946,8 @@
       <c r="K42" t="s">
         <v>757</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>223</v>
       </c>
@@ -5932,7 +3976,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>238</v>
       </c>
@@ -5961,7 +4005,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -5990,7 +4034,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -6013,16 +4057,13 @@
         <v>759</v>
       </c>
       <c r="J46" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K46" t="s">
         <v>757</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -6045,16 +4086,13 @@
         <v>759</v>
       </c>
       <c r="J47" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K47" t="s">
         <v>757</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -6077,16 +4115,13 @@
         <v>759</v>
       </c>
       <c r="J48" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K48" t="s">
         <v>757</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -6109,16 +4144,13 @@
         <v>759</v>
       </c>
       <c r="J49" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K49" t="s">
         <v>757</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -6141,16 +4173,13 @@
         <v>759</v>
       </c>
       <c r="J50" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K50" t="s">
         <v>757</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -6173,16 +4202,13 @@
         <v>759</v>
       </c>
       <c r="J51" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K51" t="s">
         <v>757</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -6205,16 +4231,13 @@
         <v>759</v>
       </c>
       <c r="J52" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K52" t="s">
         <v>757</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>264</v>
       </c>
@@ -6237,16 +4260,13 @@
         <v>759</v>
       </c>
       <c r="J53" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="K53" t="s">
         <v>758</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -6266,7 +4286,7 @@
         <v>497</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="J54" t="s">
         <v>755</v>
@@ -6274,14 +4294,8 @@
       <c r="K54" t="s">
         <v>758</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -6301,7 +4315,7 @@
         <v>606</v>
       </c>
       <c r="I55" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="J55" t="s">
         <v>755</v>
@@ -6309,14 +4323,8 @@
       <c r="K55" t="s">
         <v>758</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>233</v>
       </c>
@@ -6336,7 +4344,7 @@
         <v>706</v>
       </c>
       <c r="I56" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="J56" t="s">
         <v>755</v>
@@ -6344,11 +4352,8 @@
       <c r="K56" t="s">
         <v>758</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -6368,7 +4373,7 @@
         <v>746</v>
       </c>
       <c r="I57" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="J57" t="s">
         <v>755</v>
@@ -6377,7 +4382,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -6397,7 +4402,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -6417,7 +4422,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -6437,13 +4442,13 @@
         <v>480</v>
       </c>
       <c r="G60" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H60" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -6463,7 +4468,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -6483,7 +4488,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -6503,7 +4508,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -6523,13 +4528,13 @@
         <v>485</v>
       </c>
       <c r="G64" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H64" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -6549,7 +4554,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -6569,7 +4574,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -6589,7 +4594,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -6609,16 +4614,13 @@
         <v>490</v>
       </c>
       <c r="G68" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H68" t="s">
         <v>754</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -6638,7 +4640,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -6658,7 +4660,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -6678,7 +4680,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -6698,13 +4700,13 @@
         <v>495</v>
       </c>
       <c r="G72" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H72" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
@@ -6724,7 +4726,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -6744,7 +4746,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -6764,13 +4766,13 @@
         <v>500</v>
       </c>
       <c r="G75" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H75" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -6790,7 +4792,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -6810,7 +4812,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -6830,7 +4832,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -6850,13 +4852,13 @@
         <v>505</v>
       </c>
       <c r="G79" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H79" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -6936,7 +4938,7 @@
         <v>510</v>
       </c>
       <c r="G83" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H83" t="s">
         <v>754</v>
@@ -7022,7 +5024,7 @@
         <v>515</v>
       </c>
       <c r="G87" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H87" t="s">
         <v>754</v>
@@ -7108,7 +5110,7 @@
         <v>520</v>
       </c>
       <c r="G91" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H91" t="s">
         <v>754</v>
@@ -7194,7 +5196,7 @@
         <v>525</v>
       </c>
       <c r="G95" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H95" t="s">
         <v>754</v>
@@ -7220,7 +5222,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>55</v>
       </c>
@@ -7240,7 +5242,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>56</v>
       </c>
@@ -7260,7 +5262,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -7280,13 +5282,13 @@
         <v>530</v>
       </c>
       <c r="G99" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H99" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -7306,7 +5308,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -7326,7 +5328,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>61</v>
       </c>
@@ -7346,7 +5348,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>62</v>
       </c>
@@ -7366,13 +5368,13 @@
         <v>535</v>
       </c>
       <c r="G103" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H103" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>64</v>
       </c>
@@ -7392,7 +5394,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>65</v>
       </c>
@@ -7412,7 +5414,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>66</v>
       </c>
@@ -7432,7 +5434,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>67</v>
       </c>
@@ -7452,16 +5454,13 @@
         <v>540</v>
       </c>
       <c r="G107" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H107" t="s">
         <v>754</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -7481,7 +5480,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -7501,7 +5500,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>71</v>
       </c>
@@ -7521,7 +5520,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -7541,16 +5540,13 @@
         <v>545</v>
       </c>
       <c r="G111" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H111" t="s">
         <v>754</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>74</v>
       </c>
@@ -7630,7 +5626,7 @@
         <v>550</v>
       </c>
       <c r="G115" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H115" t="s">
         <v>754</v>
@@ -7716,7 +5712,7 @@
         <v>555</v>
       </c>
       <c r="G119" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H119" t="s">
         <v>754</v>
@@ -7802,7 +5798,7 @@
         <v>560</v>
       </c>
       <c r="G123" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H123" t="s">
         <v>754</v>
@@ -7888,7 +5884,7 @@
         <v>565</v>
       </c>
       <c r="G127" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H127" t="s">
         <v>754</v>
@@ -7914,7 +5910,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>95</v>
       </c>
@@ -7934,7 +5930,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -7954,7 +5950,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -7974,13 +5970,13 @@
         <v>570</v>
       </c>
       <c r="G131" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H131" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>99</v>
       </c>
@@ -7999,11 +5995,8 @@
       <c r="F132" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="L132" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>100</v>
       </c>
@@ -8023,7 +6016,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -8043,7 +6036,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>102</v>
       </c>
@@ -8063,13 +6056,13 @@
         <v>575</v>
       </c>
       <c r="G135" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H135" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>104</v>
       </c>
@@ -8089,7 +6082,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>105</v>
       </c>
@@ -8109,7 +6102,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>106</v>
       </c>
@@ -8129,7 +6122,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>107</v>
       </c>
@@ -8149,13 +6142,13 @@
         <v>580</v>
       </c>
       <c r="G139" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H139" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>109</v>
       </c>
@@ -8175,7 +6168,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>110</v>
       </c>
@@ -8195,7 +6188,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>111</v>
       </c>
@@ -8215,7 +6208,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -8235,13 +6228,13 @@
         <v>585</v>
       </c>
       <c r="G143" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H143" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>114</v>
       </c>
@@ -8321,7 +6314,7 @@
         <v>590</v>
       </c>
       <c r="G147" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H147" t="s">
         <v>754</v>
@@ -8407,7 +6400,7 @@
         <v>595</v>
       </c>
       <c r="G151" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H151" t="s">
         <v>754</v>
@@ -8493,7 +6486,7 @@
         <v>600</v>
       </c>
       <c r="G155" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H155" t="s">
         <v>754</v>
@@ -8579,7 +6572,7 @@
         <v>605</v>
       </c>
       <c r="G159" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H159" t="s">
         <v>754</v>
@@ -8665,7 +6658,7 @@
         <v>610</v>
       </c>
       <c r="G163" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H163" t="s">
         <v>754</v>
@@ -8751,7 +6744,7 @@
         <v>615</v>
       </c>
       <c r="G167" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H167" t="s">
         <v>754</v>
@@ -8837,7 +6830,7 @@
         <v>620</v>
       </c>
       <c r="G171" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H171" t="s">
         <v>754</v>
@@ -8923,7 +6916,7 @@
         <v>625</v>
       </c>
       <c r="G175" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H175" t="s">
         <v>754</v>
@@ -8949,7 +6942,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>155</v>
       </c>
@@ -8969,7 +6962,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>156</v>
       </c>
@@ -8989,7 +6982,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>157</v>
       </c>
@@ -9009,13 +7002,13 @@
         <v>630</v>
       </c>
       <c r="G179" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H179" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>159</v>
       </c>
@@ -9035,7 +7028,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>160</v>
       </c>
@@ -9055,7 +7048,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>161</v>
       </c>
@@ -9075,7 +7068,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>162</v>
       </c>
@@ -9095,13 +7088,13 @@
         <v>635</v>
       </c>
       <c r="G183" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H183" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>164</v>
       </c>
@@ -9120,11 +7113,8 @@
       <c r="F184" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="L184" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -9144,7 +7134,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>166</v>
       </c>
@@ -9164,7 +7154,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>167</v>
       </c>
@@ -9184,13 +7174,13 @@
         <v>640</v>
       </c>
       <c r="G187" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H187" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>169</v>
       </c>
@@ -9210,7 +7200,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>170</v>
       </c>
@@ -9230,7 +7220,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>171</v>
       </c>
@@ -9250,7 +7240,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>172</v>
       </c>
@@ -9270,13 +7260,13 @@
         <v>645</v>
       </c>
       <c r="G191" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H191" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>174</v>
       </c>
@@ -9296,7 +7286,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>175</v>
       </c>
@@ -9316,7 +7306,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>176</v>
       </c>
@@ -9336,7 +7326,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>177</v>
       </c>
@@ -9356,16 +7346,13 @@
         <v>650</v>
       </c>
       <c r="G195" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H195" t="s">
         <v>754</v>
       </c>
-      <c r="L195" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>179</v>
       </c>
@@ -9385,7 +7372,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>180</v>
       </c>
@@ -9405,7 +7392,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>181</v>
       </c>
@@ -9425,7 +7412,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>182</v>
       </c>
@@ -9445,13 +7432,13 @@
         <v>655</v>
       </c>
       <c r="G199" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H199" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -9471,7 +7458,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>185</v>
       </c>
@@ -9491,7 +7478,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>186</v>
       </c>
@@ -9511,7 +7498,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>187</v>
       </c>
@@ -9531,13 +7518,13 @@
         <v>660</v>
       </c>
       <c r="G203" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H203" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>189</v>
       </c>
@@ -9557,7 +7544,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>190</v>
       </c>
@@ -9577,7 +7564,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>191</v>
       </c>
@@ -9597,7 +7584,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>192</v>
       </c>
@@ -9617,13 +7604,13 @@
         <v>665</v>
       </c>
       <c r="G207" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H207" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>194</v>
       </c>
@@ -9703,7 +7690,7 @@
         <v>670</v>
       </c>
       <c r="G211" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H211" t="s">
         <v>754</v>
@@ -9789,7 +7776,7 @@
         <v>675</v>
       </c>
       <c r="G215" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H215" t="s">
         <v>754</v>
@@ -9875,7 +7862,7 @@
         <v>680</v>
       </c>
       <c r="G219" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H219" t="s">
         <v>754</v>
@@ -9961,7 +7948,7 @@
         <v>685</v>
       </c>
       <c r="G223" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H223" t="s">
         <v>754</v>
@@ -10047,7 +8034,7 @@
         <v>690</v>
       </c>
       <c r="G227" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H227" t="s">
         <v>754</v>
@@ -10133,7 +8120,7 @@
         <v>695</v>
       </c>
       <c r="G231" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H231" t="s">
         <v>754</v>
@@ -10219,7 +8206,7 @@
         <v>700</v>
       </c>
       <c r="G235" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H235" t="s">
         <v>754</v>
@@ -10305,10 +8292,10 @@
         <v>705</v>
       </c>
       <c r="G239" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H239" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -10391,7 +8378,7 @@
         <v>709</v>
       </c>
       <c r="G243" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H243" t="s">
         <v>754</v>
@@ -10477,7 +8464,7 @@
         <v>714</v>
       </c>
       <c r="G247" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H247" t="s">
         <v>754</v>
@@ -10563,7 +8550,7 @@
         <v>719</v>
       </c>
       <c r="G251" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H251" t="s">
         <v>754</v>
@@ -10649,7 +8636,7 @@
         <v>724</v>
       </c>
       <c r="G255" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H255" t="s">
         <v>754</v>
@@ -10700,7 +8687,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>819</v>
+        <v>769</v>
       </c>
       <c r="C258" t="s">
         <v>401</v>
@@ -10755,7 +8742,7 @@
         <v>730</v>
       </c>
       <c r="G260" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H260" t="s">
         <v>754</v>
@@ -10841,7 +8828,7 @@
         <v>735</v>
       </c>
       <c r="G264" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H264" t="s">
         <v>754</v>
@@ -10927,7 +8914,7 @@
         <v>740</v>
       </c>
       <c r="G268" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H268" t="s">
         <v>754</v>
@@ -11013,13 +9000,13 @@
         <v>745</v>
       </c>
       <c r="G272" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H272" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -11039,7 +9026,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -11059,7 +9046,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -11079,7 +9066,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -11099,13 +9086,13 @@
         <v>750</v>
       </c>
       <c r="G276" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="H276" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -11124,192 +9111,12 @@
       <c r="F277" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="L277" s="3" t="s">
-        <v>794</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M279">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K279">
     <sortCondition ref="I2:I279"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A3713B-78E0-4AB8-84D7-FCCBD1F6871A}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="D4" t="s">
-        <v>797</v>
-      </c>
-      <c r="E4" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="B6" s="9">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="B8" s="9">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9">
-        <v>27</v>
-      </c>
-      <c r="F8" s="9">
-        <v>7</v>
-      </c>
-      <c r="G8" s="13">
-        <v>18</v>
-      </c>
-      <c r="H8" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>798</v>
-      </c>
-      <c r="B11" s="9">
-        <v>24</v>
-      </c>
-      <c r="C11" s="9">
-        <v>33</v>
-      </c>
-      <c r="E11" s="9">
-        <v>57</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>
--- a/tables/step3_ufors_qp_annotated.xlsx
+++ b/tables/step3_ufors_qp_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\UQ\BookProjects\SI_ReplicationInCorpusLinguistics\ourpaper\ijcl_ufor\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0812FEC4-3413-41A7-813D-9C21F1FE1133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2934F933-8FA9-4ED6-8BD0-AB77C9B00D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data annotation" sheetId="1" r:id="rId1"/>
@@ -2711,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112:F114"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5333,7 +5333,15 @@
       <c r="F113" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I113" s="2"/>
+      <c r="I113" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="J113" t="s">
+        <v>755</v>
+      </c>
+      <c r="K113" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -5353,15 +5361,6 @@
       </c>
       <c r="F114" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="J114" t="s">
-        <v>755</v>
-      </c>
-      <c r="K114" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
